--- a/Template_Chit/chit_data.xlsx
+++ b/Template_Chit/chit_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakhil\Documents\Test_Projects\Template_Chit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakhil\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9725D48C-9B4E-436A-9469-516AE3BD6C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6039903-F51F-4F75-8626-23BBD705F433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="227">
   <si>
     <t xml:space="preserve">         CHITS FOR THE MONTH OF APRIL -2023</t>
   </si>
@@ -464,9 +464,6 @@
   </si>
   <si>
     <t>PALAGANI KRISHNA                             8</t>
-  </si>
-  <si>
-    <t>GRAND TOTAL</t>
   </si>
   <si>
     <t>ANANDARAO J                         5,6,15,18</t>
@@ -1278,8 +1275,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3036,8 +3033,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3098,18 +3095,14 @@
       <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17">
-        <v>3755</v>
-      </c>
+      <c r="C3" s="17"/>
       <c r="D3" s="15">
         <v>31</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10">
-        <v>9120</v>
-      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -3123,18 +3116,14 @@
       <c r="B4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="17">
-        <v>22090</v>
-      </c>
+      <c r="C4" s="17"/>
       <c r="D4" s="15">
         <v>32</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10">
-        <v>5754</v>
-      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -3148,18 +3137,14 @@
       <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="17">
-        <v>16104</v>
-      </c>
+      <c r="C5" s="17"/>
       <c r="D5" s="15">
         <v>33</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="10">
-        <v>10221</v>
-      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -3173,18 +3158,14 @@
       <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17">
-        <v>15619</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="15">
         <v>34</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="10">
-        <v>7822</v>
-      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -3198,18 +3179,14 @@
       <c r="B7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="17">
-        <v>2747</v>
-      </c>
+      <c r="C7" s="17"/>
       <c r="D7" s="15">
         <v>35</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10">
-        <v>4588</v>
-      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -3223,18 +3200,14 @@
       <c r="B8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="17">
-        <v>13689</v>
-      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="15">
         <v>36</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10">
-        <v>9609</v>
-      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -3248,18 +3221,14 @@
       <c r="B9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="17">
-        <v>37500</v>
-      </c>
+      <c r="C9" s="17"/>
       <c r="D9" s="15">
         <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="10">
-        <v>17449</v>
-      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -3273,18 +3242,14 @@
       <c r="B10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="17">
-        <v>10342</v>
-      </c>
+      <c r="C10" s="17"/>
       <c r="D10" s="15">
         <v>38</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10">
-        <v>37975</v>
-      </c>
+      <c r="F10" s="10"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -3298,18 +3263,14 @@
       <c r="B11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17">
-        <v>4627</v>
-      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="15">
         <v>39</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="10">
-        <v>5854</v>
-      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -3323,18 +3284,14 @@
       <c r="B12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="17">
-        <v>3755</v>
-      </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="15">
         <v>40</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="10">
-        <v>11000</v>
-      </c>
+      <c r="F12" s="10"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -3348,18 +3305,14 @@
       <c r="B13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="17">
-        <v>10497</v>
-      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="15">
         <v>41</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="10">
-        <v>15183</v>
-      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -3373,18 +3326,14 @@
       <c r="B14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="17">
-        <v>73443</v>
-      </c>
+      <c r="C14" s="17"/>
       <c r="D14" s="15">
         <v>42</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="10">
-        <v>13429</v>
-      </c>
+      <c r="F14" s="10"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -3398,18 +3347,14 @@
       <c r="B15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="17">
-        <v>46502</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="15">
         <v>43</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="10">
-        <v>15763</v>
-      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -3423,18 +3368,14 @@
       <c r="B16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="17">
-        <v>32662</v>
-      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="15">
         <v>44</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="10">
-        <v>62974</v>
-      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -3448,18 +3389,14 @@
       <c r="B17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="17">
-        <v>17811</v>
-      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="15">
         <v>45</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="10">
-        <v>76570</v>
-      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -3473,18 +3410,14 @@
       <c r="B18" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="17">
-        <v>24639</v>
-      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="15">
         <v>46</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="10">
-        <v>61359</v>
-      </c>
+      <c r="F18" s="10"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -3498,18 +3431,14 @@
       <c r="B19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="17">
-        <v>33379</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="15">
         <v>47</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="10">
-        <v>3266</v>
-      </c>
+      <c r="F19" s="10"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -3523,18 +3452,14 @@
       <c r="B20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="17">
-        <v>10755</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="15">
         <v>48</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="10">
-        <v>13440</v>
-      </c>
+      <c r="F20" s="10"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -3548,18 +3473,14 @@
       <c r="B21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="17">
-        <v>15928</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="15">
         <v>49</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="10">
-        <v>38432</v>
-      </c>
+      <c r="F21" s="10"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -3573,18 +3494,14 @@
       <c r="B22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="17">
-        <v>5855</v>
-      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="15">
         <v>50</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="10">
-        <v>7332</v>
-      </c>
+      <c r="F22" s="10"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -3598,18 +3515,14 @@
       <c r="B23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="17">
-        <v>86118</v>
-      </c>
+      <c r="C23" s="17"/>
       <c r="D23" s="15">
         <v>51</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="10">
-        <v>5607</v>
-      </c>
+      <c r="F23" s="10"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -3623,18 +3536,14 @@
       <c r="B24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="17">
-        <v>12540</v>
-      </c>
+      <c r="C24" s="17"/>
       <c r="D24" s="15">
         <v>52</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="10">
-        <v>9865</v>
-      </c>
+      <c r="F24" s="10"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -3648,18 +3557,14 @@
       <c r="B25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="17">
-        <v>23213</v>
-      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="15">
         <v>53</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="10">
-        <v>2352</v>
-      </c>
+      <c r="F25" s="10"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -3673,18 +3578,14 @@
       <c r="B26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="17">
-        <v>3423</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="15">
         <v>54</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="10">
-        <v>42217</v>
-      </c>
+      <c r="F26" s="10"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -3698,18 +3599,14 @@
       <c r="B27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="17">
-        <v>13353</v>
-      </c>
+      <c r="C27" s="17"/>
       <c r="D27" s="15">
         <v>55</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="10">
-        <v>49137</v>
-      </c>
+      <c r="F27" s="10"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -3723,18 +3620,14 @@
       <c r="B28" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="17">
-        <v>7330</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="15">
         <v>56</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="10">
-        <v>59426</v>
-      </c>
+      <c r="F28" s="10"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -3748,18 +3641,14 @@
       <c r="B29" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="17">
-        <v>7150</v>
-      </c>
+      <c r="C29" s="17"/>
       <c r="D29" s="15">
         <v>57</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="10">
-        <v>7332</v>
-      </c>
+      <c r="F29" s="10"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -3773,18 +3662,14 @@
       <c r="B30" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="17">
-        <v>23065</v>
-      </c>
+      <c r="C30" s="17"/>
       <c r="D30" s="15">
         <v>58</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="10">
-        <v>3575</v>
-      </c>
+      <c r="F30" s="10"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -3798,18 +3683,14 @@
       <c r="B31" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="17">
-        <v>29404</v>
-      </c>
+      <c r="C31" s="17"/>
       <c r="D31" s="15">
         <v>59</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="10">
-        <v>63588</v>
-      </c>
+      <c r="F31" s="10"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -3823,18 +3704,14 @@
       <c r="B32" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="17">
-        <v>33735</v>
-      </c>
+      <c r="C32" s="17"/>
       <c r="D32" s="15">
         <v>60</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="10">
-        <v>33154</v>
-      </c>
+      <c r="F32" s="10"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -3844,14 +3721,10 @@
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="28">
-        <v>641030</v>
-      </c>
+      <c r="C33" s="28"/>
       <c r="D33" s="12"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="28">
-        <v>703393</v>
-      </c>
+      <c r="F33" s="28"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -4743,8 +4616,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4805,18 +4678,14 @@
       <c r="B3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="22">
-        <v>3477</v>
-      </c>
+      <c r="C3" s="22"/>
       <c r="D3" s="20">
         <v>99</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="23">
-        <v>5754</v>
-      </c>
+      <c r="F3" s="23"/>
       <c r="G3" s="24"/>
       <c r="H3" s="27"/>
     </row>
@@ -4827,18 +4696,14 @@
       <c r="B4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="22">
-        <v>15719</v>
-      </c>
+      <c r="C4" s="22"/>
       <c r="D4" s="20">
         <v>100</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="23">
-        <v>7332</v>
-      </c>
+      <c r="F4" s="23"/>
       <c r="G4" s="24"/>
       <c r="H4" s="27"/>
     </row>
@@ -4849,18 +4714,14 @@
       <c r="B5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="22">
-        <v>11069</v>
-      </c>
+      <c r="C5" s="22"/>
       <c r="D5" s="20">
         <v>101</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="23">
-        <v>4627</v>
-      </c>
+      <c r="F5" s="23"/>
       <c r="G5" s="24"/>
       <c r="H5" s="27"/>
     </row>
@@ -4871,18 +4732,14 @@
       <c r="B6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="22">
-        <v>5854</v>
-      </c>
+      <c r="C6" s="22"/>
       <c r="D6" s="20">
         <v>102</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="23">
-        <v>14929</v>
-      </c>
+      <c r="F6" s="23"/>
       <c r="G6" s="24"/>
       <c r="H6" s="27"/>
     </row>
@@ -4893,18 +4750,14 @@
       <c r="B7" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="22">
-        <v>3727</v>
-      </c>
+      <c r="C7" s="22"/>
       <c r="D7" s="20">
         <v>103</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="23">
-        <v>4588</v>
-      </c>
+      <c r="F7" s="23"/>
       <c r="G7" s="24"/>
       <c r="H7" s="27"/>
     </row>
@@ -4915,18 +4768,14 @@
       <c r="B8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="22">
-        <v>21409</v>
-      </c>
+      <c r="C8" s="22"/>
       <c r="D8" s="20">
         <v>104</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="23">
-        <v>5855</v>
-      </c>
+      <c r="F8" s="23"/>
       <c r="G8" s="24"/>
       <c r="H8" s="27"/>
     </row>
@@ -4937,18 +4786,14 @@
       <c r="B9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="22">
-        <v>4337</v>
-      </c>
+      <c r="C9" s="22"/>
       <c r="D9" s="20">
         <v>105</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="23">
-        <v>19199</v>
-      </c>
+      <c r="F9" s="23"/>
       <c r="G9" s="24"/>
       <c r="H9" s="27"/>
     </row>
@@ -4959,18 +4804,14 @@
       <c r="B10" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="22">
-        <v>19697</v>
-      </c>
+      <c r="C10" s="22"/>
       <c r="D10" s="20">
         <v>106</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="23">
-        <v>3575</v>
-      </c>
+      <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="27"/>
     </row>
@@ -4981,18 +4822,14 @@
       <c r="B11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="22">
-        <v>21573</v>
-      </c>
+      <c r="C11" s="22"/>
       <c r="D11" s="20">
         <v>107</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="23">
-        <v>4588</v>
-      </c>
+      <c r="F11" s="23"/>
       <c r="G11" s="24"/>
       <c r="H11" s="27"/>
     </row>
@@ -5003,18 +4840,14 @@
       <c r="B12" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="22">
-        <v>11299</v>
-      </c>
+      <c r="C12" s="22"/>
       <c r="D12" s="20">
         <v>108</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="23">
-        <v>20790</v>
-      </c>
+      <c r="F12" s="23"/>
       <c r="G12" s="24"/>
       <c r="H12" s="27"/>
     </row>
@@ -5025,18 +4858,14 @@
       <c r="B13" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="22">
-        <v>7089</v>
-      </c>
+      <c r="C13" s="22"/>
       <c r="D13" s="20">
         <v>109</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="23">
-        <v>10491</v>
-      </c>
+      <c r="F13" s="23"/>
       <c r="G13" s="24"/>
       <c r="H13" s="27"/>
     </row>
@@ -5047,18 +4876,14 @@
       <c r="B14" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="22">
-        <v>19769</v>
-      </c>
+      <c r="C14" s="22"/>
       <c r="D14" s="20">
         <v>110</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="23">
-        <v>3755</v>
-      </c>
+      <c r="F14" s="23"/>
       <c r="G14" s="24"/>
       <c r="H14" s="27"/>
     </row>
@@ -5069,18 +4894,14 @@
       <c r="B15" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="22">
-        <v>4337</v>
-      </c>
+      <c r="C15" s="22"/>
       <c r="D15" s="20">
         <v>111</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="23">
-        <v>10554</v>
-      </c>
+      <c r="F15" s="23"/>
       <c r="G15" s="24"/>
       <c r="H15" s="27"/>
     </row>
@@ -5091,18 +4912,14 @@
       <c r="B16" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="22">
-        <v>14664</v>
-      </c>
+      <c r="C16" s="22"/>
       <c r="D16" s="20">
         <v>112</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="23">
-        <v>39614</v>
-      </c>
+      <c r="F16" s="23"/>
       <c r="G16" s="24"/>
       <c r="H16" s="27"/>
     </row>
@@ -5113,18 +4930,14 @@
       <c r="B17" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="22">
-        <v>28589</v>
-      </c>
+      <c r="C17" s="22"/>
       <c r="D17" s="20">
         <v>113</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="23">
-        <v>3266</v>
-      </c>
+      <c r="F17" s="23"/>
       <c r="G17" s="24"/>
       <c r="H17" s="27"/>
     </row>
@@ -5135,18 +4948,14 @@
       <c r="B18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="22">
-        <v>23351</v>
-      </c>
+      <c r="C18" s="22"/>
       <c r="D18" s="20">
         <v>114</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="23">
-        <v>8925</v>
-      </c>
+      <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="27"/>
     </row>
@@ -5157,18 +4966,14 @@
       <c r="B19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="22">
-        <v>21063</v>
-      </c>
+      <c r="C19" s="22"/>
       <c r="D19" s="20">
         <v>115</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="23">
-        <v>20661</v>
-      </c>
+      <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="27"/>
     </row>
@@ -5179,18 +4984,14 @@
       <c r="B20" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="22">
-        <v>33402</v>
-      </c>
+      <c r="C20" s="22"/>
       <c r="D20" s="20">
         <v>116</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="23">
-        <v>15208</v>
-      </c>
+      <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="27"/>
     </row>
@@ -5201,18 +5002,14 @@
       <c r="B21" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="22">
-        <v>21473</v>
-      </c>
+      <c r="C21" s="22"/>
       <c r="D21" s="20">
         <v>117</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="23">
-        <v>9370</v>
-      </c>
+      <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="27"/>
     </row>
@@ -5223,18 +5020,14 @@
       <c r="B22" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="22">
-        <v>10497</v>
-      </c>
+      <c r="C22" s="22"/>
       <c r="D22" s="20">
         <v>118</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="23">
-        <v>28347</v>
-      </c>
+      <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="27"/>
     </row>
@@ -5245,18 +5038,14 @@
       <c r="B23" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="22">
-        <v>15483</v>
-      </c>
+      <c r="C23" s="22"/>
       <c r="D23" s="20">
         <v>119</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="23">
-        <v>24403</v>
-      </c>
+      <c r="F23" s="23"/>
       <c r="G23" s="24"/>
       <c r="H23" s="27"/>
     </row>
@@ -5267,18 +5056,14 @@
       <c r="B24" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="22">
-        <v>17347</v>
-      </c>
+      <c r="C24" s="22"/>
       <c r="D24" s="20">
         <v>120</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="23">
-        <v>9177</v>
-      </c>
+      <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="27"/>
     </row>
@@ -5289,18 +5074,14 @@
       <c r="B25" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="22">
-        <v>18830</v>
-      </c>
+      <c r="C25" s="22"/>
       <c r="D25" s="20">
         <v>121</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="23">
-        <v>11599</v>
-      </c>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="27"/>
     </row>
@@ -5311,18 +5092,14 @@
       <c r="B26" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="22">
-        <v>7734</v>
-      </c>
+      <c r="C26" s="22"/>
       <c r="D26" s="20">
         <v>122</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="23">
-        <v>14421</v>
-      </c>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="27"/>
     </row>
@@ -5333,18 +5110,14 @@
       <c r="B27" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="22">
-        <v>3423</v>
-      </c>
+      <c r="C27" s="22"/>
       <c r="D27" s="20">
         <v>123</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="23">
-        <v>24430</v>
-      </c>
+      <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="27"/>
     </row>
@@ -5355,18 +5128,14 @@
       <c r="B28" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="22">
-        <v>7822</v>
-      </c>
+      <c r="C28" s="22"/>
       <c r="D28" s="20">
         <v>124</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F28" s="23">
-        <v>9865</v>
-      </c>
+      <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="27"/>
     </row>
@@ -5377,18 +5146,14 @@
       <c r="B29" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="22">
-        <v>5745</v>
-      </c>
+      <c r="C29" s="22"/>
       <c r="D29" s="20">
         <v>125</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="23">
-        <v>12691</v>
-      </c>
+      <c r="F29" s="23"/>
       <c r="G29" s="24"/>
       <c r="H29" s="27"/>
     </row>
@@ -5399,18 +5164,14 @@
       <c r="B30" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="22">
-        <v>52265</v>
-      </c>
+      <c r="C30" s="22"/>
       <c r="D30" s="20">
         <v>126</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="23">
-        <v>31522</v>
-      </c>
+      <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="27"/>
     </row>
@@ -5421,18 +5182,14 @@
       <c r="B31" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="22">
-        <v>4337</v>
-      </c>
+      <c r="C31" s="22"/>
       <c r="D31" s="20">
         <v>127</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="23">
-        <v>44445</v>
-      </c>
+      <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="27"/>
     </row>
@@ -5443,9 +5200,7 @@
       <c r="B32" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="22">
-        <v>102382</v>
-      </c>
+      <c r="C32" s="22"/>
       <c r="D32" s="20">
         <v>128</v>
       </c>
@@ -5461,9 +5216,7 @@
       <c r="B33" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="22">
-        <v>4588</v>
-      </c>
+      <c r="C33" s="22"/>
       <c r="D33" s="20">
         <v>129</v>
       </c>
@@ -5479,9 +5232,7 @@
       <c r="B34" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="22">
-        <v>4337</v>
-      </c>
+      <c r="C34" s="22"/>
       <c r="D34" s="20">
         <v>130</v>
       </c>
@@ -5497,9 +5248,7 @@
       <c r="B35" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="22">
-        <v>3755</v>
-      </c>
+      <c r="C35" s="22"/>
       <c r="D35" s="20">
         <v>131</v>
       </c>
@@ -5515,9 +5264,7 @@
       <c r="B36" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="22">
-        <v>4366</v>
-      </c>
+      <c r="C36" s="22"/>
       <c r="D36" s="20">
         <v>132</v>
       </c>
@@ -5533,9 +5280,7 @@
       <c r="B37" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="22">
-        <v>13603</v>
-      </c>
+      <c r="C37" s="22"/>
       <c r="D37" s="20">
         <v>133</v>
       </c>
@@ -5550,9 +5295,7 @@
       <c r="B38" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="22">
-        <v>24094</v>
-      </c>
+      <c r="C38" s="22"/>
       <c r="D38" s="20">
         <v>134</v>
       </c>
@@ -5567,9 +5310,7 @@
       <c r="B39" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="22">
-        <v>5854</v>
-      </c>
+      <c r="C39" s="22"/>
       <c r="D39" s="20">
         <v>135</v>
       </c>
@@ -5584,9 +5325,7 @@
       <c r="B40" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="22">
-        <v>3266</v>
-      </c>
+      <c r="C40" s="22"/>
       <c r="D40" s="20">
         <v>136</v>
       </c>
@@ -5597,14 +5336,10 @@
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="29">
-        <v>601626</v>
-      </c>
+      <c r="C41" s="29"/>
       <c r="D41" s="12"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="29">
-        <v>423981</v>
-      </c>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="12"/>
@@ -5616,12 +5351,8 @@
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="30">
-        <v>2370030</v>
-      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="12"/>
@@ -6016,7 +5747,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -6024,7 +5755,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -6032,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -6048,7 +5779,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -6056,7 +5787,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -6064,7 +5795,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -6080,7 +5811,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -6088,7 +5819,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -6096,7 +5827,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -6104,7 +5835,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -6112,7 +5843,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -6136,7 +5867,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
@@ -6144,7 +5875,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
@@ -6152,7 +5883,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
@@ -6160,7 +5891,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
@@ -6168,7 +5899,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
@@ -6208,7 +5939,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
@@ -6216,7 +5947,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1">
@@ -6224,7 +5955,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1">
@@ -6232,7 +5963,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1">
@@ -6240,7 +5971,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1">
@@ -6248,7 +5979,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1">
@@ -6256,7 +5987,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1">
@@ -6264,7 +5995,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1">
@@ -6272,7 +6003,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1">
@@ -6304,7 +6035,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
@@ -6320,7 +6051,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1">
@@ -6328,7 +6059,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1">
@@ -6336,7 +6067,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1">
@@ -6344,7 +6075,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1">
@@ -6352,7 +6083,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
@@ -6360,7 +6091,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1">
@@ -6368,7 +6099,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1">
@@ -6376,7 +6107,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1">
@@ -6392,7 +6123,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1">
@@ -6408,7 +6139,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" customHeight="1">
@@ -6440,7 +6171,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25" customHeight="1">
@@ -6448,7 +6179,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.25" customHeight="1">
@@ -6456,7 +6187,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25" customHeight="1">
@@ -6472,7 +6203,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25" customHeight="1">
@@ -6480,7 +6211,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.25" customHeight="1">
@@ -6528,7 +6259,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1">
@@ -6544,7 +6275,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1">
@@ -6552,7 +6283,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1">
@@ -6576,7 +6307,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1">
@@ -6592,7 +6323,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1">
@@ -6608,7 +6339,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1">
@@ -6616,7 +6347,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1">
@@ -6624,7 +6355,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1">
@@ -6632,7 +6363,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1">
@@ -6640,7 +6371,7 @@
         <v>80</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1">
@@ -6648,7 +6379,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1">
@@ -6656,7 +6387,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1">
@@ -6664,7 +6395,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1">
@@ -6672,7 +6403,7 @@
         <v>84</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1">
@@ -6680,7 +6411,7 @@
         <v>85</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1">
@@ -6696,7 +6427,7 @@
         <v>87</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1">
@@ -6704,7 +6435,7 @@
         <v>88</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1">
@@ -6736,7 +6467,7 @@
         <v>92</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1">
@@ -6744,7 +6475,7 @@
         <v>93</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1">
@@ -6760,7 +6491,7 @@
         <v>95</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1">
@@ -6768,7 +6499,7 @@
         <v>96</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1">
@@ -6800,7 +6531,7 @@
         <v>100</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1">
@@ -6808,7 +6539,7 @@
         <v>101</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.75" customHeight="1">
@@ -6816,7 +6547,7 @@
         <v>102</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1">
@@ -6832,7 +6563,7 @@
         <v>104</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1">
@@ -6840,7 +6571,7 @@
         <v>105</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1">
@@ -6856,7 +6587,7 @@
         <v>107</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1">
@@ -6864,7 +6595,7 @@
         <v>108</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1">
@@ -6872,7 +6603,7 @@
         <v>109</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.75" customHeight="1">
@@ -6888,7 +6619,7 @@
         <v>111</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1">
@@ -6904,7 +6635,7 @@
         <v>113</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" customHeight="1">
@@ -6912,7 +6643,7 @@
         <v>114</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" customHeight="1">
@@ -6920,7 +6651,7 @@
         <v>115</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" customHeight="1">
@@ -6936,7 +6667,7 @@
         <v>117</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.75" customHeight="1">
@@ -6944,7 +6675,7 @@
         <v>118</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1">
@@ -6968,7 +6699,7 @@
         <v>121</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75" customHeight="1">
@@ -6976,7 +6707,7 @@
         <v>122</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1">
@@ -6984,7 +6715,7 @@
         <v>123</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" customHeight="1">
@@ -6992,7 +6723,7 @@
         <v>124</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" ht="14.5" customHeight="1"/>
